--- a/FLD_ICC/results/training_results.xlsx
+++ b/FLD_ICC/results/training_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,10 +845,8 @@
           <t>ushcn</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9942296</t>
-        </is>
+      <c r="D5" t="n">
+        <v>9942296</v>
       </c>
       <c r="E5" t="n">
         <v>70</v>
@@ -913,6 +911,440 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-08-26 21:08:37</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IC-FLD-RCF</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ushcn</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>703777</v>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>64</v>
+      </c>
+      <c r="L6" t="n">
+        <v>64</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>24</v>
+      </c>
+      <c r="U6" t="n">
+        <v>27</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.9087598926257192</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9532889921874265</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.024371981620789</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.5467672879885382</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.7394371494512149</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-26 21:24:38</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IC-FLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ushcn</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6244886</v>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>64</v>
+      </c>
+      <c r="L7" t="n">
+        <v>64</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>24</v>
+      </c>
+      <c r="U7" t="n">
+        <v>27</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.9087598926257192</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.9532889921874265</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.024371981620789</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.5467672879885382</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.7394371494512149</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-26 23:46:11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IC-FLD-RCF</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ushcn</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1510000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>32</v>
+      </c>
+      <c r="L8" t="n">
+        <v>64</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>24</v>
+      </c>
+      <c r="R8" t="n">
+        <v>48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>24</v>
+      </c>
+      <c r="U8" t="n">
+        <v>15</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.630951870795464</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.622020924894455</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.104655265808105</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.105926419578673</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.05163036737186</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-27 02:10:50</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IC-FLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ushcn</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7707229</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>32</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U9" t="n">
+        <v>79</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.9748103521170877</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9873248513620467</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.6992638111114502</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.6324341130318172</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.7952572684558232</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-27 03:08:54</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IC-FLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>physionet</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7643543</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>64</v>
+      </c>
+      <c r="L10" t="n">
+        <v>64</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>24</v>
+      </c>
+      <c r="R10" t="n">
+        <v>48</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>24</v>
+      </c>
+      <c r="U10" t="n">
+        <v>72</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.007018746701038319</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.08377802039340819</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.005326989572495222</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.007174621217513928</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.08470319484832864</v>
+      </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
